--- a/data/trans_bre/P27F_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27F_6_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,159 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>265,39%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-12,45%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>410,99%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.495479017789826</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.4633280340926311</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.814088228644561</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>2.653918569127432</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.09195440312968228</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.239918695659654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 15,15</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 5,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 7,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 1668,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-80,24; 372,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.196033036045696</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.339087172848545</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.1989851165018114</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1157616612652418</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.789647150299696</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.15035575992001</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.352457925906109</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.329949548946225</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>16.68306153470729</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.902540086574839</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>141,43%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>28,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-74,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 14,15</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 6,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; -0,6</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 561,3</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-52,12; 251,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-95,56; 11,75</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.21466331071747</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.814280810617004</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.223040107713036</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.414272558273688</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3086315574260778</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.7474854393520324</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>77,03%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,52%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>75,53%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8217125270262262</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.799237396729487</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.956178826672554</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.02920937566832637</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.5156778053290547</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9575880952690039</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 8,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,87; 6,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 4,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,82; 243,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-35,67; 299,97</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-42,96; 535,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.1546632759491</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.159216551262998</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.7073853372109626</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>5.612997923462077</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.489169343392748</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.0717750799950975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +771,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>96,4%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>254,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>91,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.128639799844894</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.235699574319118</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.482492529500639</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.7703233150681458</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.5626025623697695</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.7790465148536942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 14,1</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 12,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 4,71</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,04; 249,29</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>49,0; 778,15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,38; 479,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3990794381953776</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.041215768040884</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8954414229796285</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1082418921527161</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3735589790821071</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4228336389998908</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.482392058291008</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.372654746128827</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.422953585291387</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.43420321109974</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.804330136620775</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>5.458528521857563</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>50,21%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>129,22%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>175,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 10,26</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 11,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 8,16</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-22,39; 199,93</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 435,76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-32,22; 900,35</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>8.230646837926557</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.820336799701683</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.846753890501375</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.9640014883951643</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.707687741377006</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.9125197926860198</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>876,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>72,44%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-34,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.370910539331687</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.807228970307652</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.5851874792557695</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.0904282547819537</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.5564817191886482</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2933144081461805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 9,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 6,93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,66; 2,48</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-53,13; 727,12</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.10487468360232</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.76378063369176</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.599332331139808</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.492863229942685</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>8.442469406488433</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.762388905022052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +935,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>107,31%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>77,2%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>30,67%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.185737119711328</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.192885562165327</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>3.719562025203338</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.502087297491138</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>1.28857135090998</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1.824192928722776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 8,12</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 5,24</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 2,17</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>49,05; 193,48</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>18,97; 155,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-22,0; 118,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.139849479701554</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.159911042492821</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.06120087331789492</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.223853440196239</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.06273220329495416</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.3340033081076498</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>10.25963959362082</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.68337500316533</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.512199309901531</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1.999270300931262</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>4.474708581571931</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>9.127228541869801</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>4.823155568950788</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.099347985707551</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-1.25319439224713</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>8.759953022361051</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.7043086463153703</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.4495273601301256</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1.60965327318175</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-2.111235232968433</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-6.355615157770556</v>
+      </c>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-0.5338357159702938</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9.548318278036195</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.837640232129544</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.881929295504317</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>7.195493109762533</v>
+      </c>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.651811867929394</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>3.309115742442818</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.7531146736156967</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1.073071736703636</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.7859134772305016</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.2912078532833179</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>3.225872815770198</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.26576450777205</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.7597099162986681</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.4904888256616899</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.2000187451265329</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.2298479809945582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.119641189562991</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.267450323839817</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.106429499603277</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1.934806370778402</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.594890846229397</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1.165858897641853</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1172,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
